--- a/doc/终极需求/系统剩余需求.xlsx
+++ b/doc/终极需求/系统剩余需求.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E7569-EA80-4879-8E8A-83AABD12C4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="plan" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <r>
       <rPr>
@@ -571,12 +571,137 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划措施与输出成果</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价措施项目费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价措施项目费管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价措施项目费审核业务流</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价措施项目费消耗查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点工班组录入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点工班组人员维护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点工班组是挂在项目下的，人员来自其它务工人员（农民工？）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有的工程量上报中兼容安全文明施工费和总价措施项目费的上报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点工班组是否有合同，此问题尚未确认</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目人员工资表审核完成后计入管理费消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营管理下新增“规费管理”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金消耗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按周生提供的设计图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指机关人员，机关人员来源？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部-&gt;费用上报（名称，金额，说明）-&gt;财务审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司管理人员工资表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点工班组工资表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用来源为已上报的总价措施项目费
+按月发放？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组人员工资表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理人员工资表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为按班组成员情况整体录入，然后在表格中修改数据
+每行提供删除功能，点工班组和机关人员的工资单也要这么做</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组人员花名册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个指的是农民工？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +834,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -841,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -935,6 +1074,14 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -992,13 +1139,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1062,7 +1296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1095,26 +1329,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1147,23 +1364,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1339,38 +1539,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="71.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="70.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="71.5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1396,8 +1596,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="31" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:8" s="31" customFormat="1" ht="46.15" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -1409,15 +1609,15 @@
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="31" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:8" s="31" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A4" s="39"/>
       <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
@@ -1425,29 +1625,29 @@
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="45"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="51.6" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="3"/>
       <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A6" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1460,12 +1660,12 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="153" customHeight="1">
+      <c r="A7" s="39"/>
       <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
@@ -1476,10 +1676,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1494,8 +1694,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A9" s="38"/>
       <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
@@ -1508,8 +1708,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A10" s="38"/>
       <c r="B10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1522,8 +1722,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A11" s="38"/>
       <c r="B11" s="13" t="s">
         <v>56</v>
       </c>
@@ -1536,8 +1736,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A12" s="38"/>
       <c r="B12" s="13" t="s">
         <v>59</v>
       </c>
@@ -1550,8 +1750,8 @@
       <c r="G12" s="8"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A13" s="38"/>
       <c r="B13" s="13" t="s">
         <v>64</v>
       </c>
@@ -1564,8 +1764,8 @@
       <c r="G13" s="8"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A14" s="38"/>
       <c r="B14" s="13" t="s">
         <v>65</v>
       </c>
@@ -1578,8 +1778,8 @@
       <c r="G14" s="8"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
         <v>68</v>
       </c>
@@ -1592,8 +1792,8 @@
       <c r="G15" s="8"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
         <v>70</v>
       </c>
@@ -1606,8 +1806,8 @@
       <c r="G16" s="8"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A17" s="38"/>
       <c r="B17" s="13" t="s">
         <v>72</v>
       </c>
@@ -1620,8 +1820,8 @@
       <c r="G17" s="8"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
+      <c r="A18" s="39"/>
       <c r="B18" s="13" t="s">
         <v>74</v>
       </c>
@@ -1634,8 +1834,8 @@
       <c r="G18" s="8"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:8" ht="36.6" customHeight="1">
+      <c r="A19" s="46" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1648,74 +1848,74 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:8" ht="48.6" customHeight="1">
+      <c r="A20" s="46"/>
       <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="47" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:8" ht="43.9" customHeight="1">
+      <c r="A21" s="46"/>
       <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.9" customHeight="1">
+      <c r="A22" s="46"/>
       <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" ht="48.6" customHeight="1">
+      <c r="A23" s="46"/>
       <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="48"/>
-    </row>
-    <row r="24" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" spans="1:8" ht="55.9" customHeight="1">
+      <c r="A24" s="46"/>
       <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A25" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -1728,12 +1928,12 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="46.9" customHeight="1">
+      <c r="A26" s="39"/>
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
@@ -1744,9 +1944,9 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8" ht="357" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" ht="357" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>10</v>
       </c>
@@ -1764,8 +1964,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:8" ht="51.6" customHeight="1">
+      <c r="A28" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -1780,8 +1980,8 @@
       <c r="G28" s="3"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:8" ht="51.6" customHeight="1">
+      <c r="A29" s="35"/>
       <c r="B29" s="13" t="s">
         <v>46</v>
       </c>
@@ -1794,8 +1994,8 @@
       <c r="G29" s="3"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:8" ht="51.6" customHeight="1">
+      <c r="A30" s="36"/>
       <c r="B30" s="13" t="s">
         <v>48</v>
       </c>
@@ -1808,7 +2008,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="48.6" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
@@ -1847,14 +2047,470 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="47" style="69" customWidth="1"/>
+    <col min="3" max="3" width="65" style="70" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="70" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="51" style="71" customWidth="1"/>
+    <col min="9" max="9" width="51" style="51" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" s="52" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="77"/>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="77"/>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="77"/>
+      <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="56"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="77"/>
+      <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="56"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="68"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="68"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="68"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="68"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="68"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="68"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="68"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="68"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
+    </row>
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+    </row>
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+    </row>
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/终极需求/系统剩余需求.xlsx
+++ b/doc/终极需求/系统剩余需求.xlsx
@@ -849,7 +849,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,6 +870,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -980,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1082,6 +1088,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1139,78 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1233,6 +1239,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1542,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1559,16 +1575,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1597,7 +1613,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="31" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -1609,15 +1625,15 @@
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="31" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
@@ -1625,8 +1641,8 @@
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="51.6" customHeight="1">
       <c r="A5" s="24" t="s">
@@ -1647,7 +1663,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1660,12 +1676,12 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="153" customHeight="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
@@ -1676,10 +1692,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1695,7 +1711,7 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
@@ -1709,7 +1725,7 @@
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1723,7 +1739,7 @@
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="13" t="s">
         <v>56</v>
       </c>
@@ -1737,7 +1753,7 @@
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="13" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1767,7 @@
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="13" t="s">
         <v>64</v>
       </c>
@@ -1765,7 +1781,7 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="13" t="s">
         <v>65</v>
       </c>
@@ -1779,7 +1795,7 @@
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="13" t="s">
         <v>68</v>
       </c>
@@ -1793,7 +1809,7 @@
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="13" t="s">
         <v>70</v>
       </c>
@@ -1807,7 +1823,7 @@
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A17" s="38"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="13" t="s">
         <v>72</v>
       </c>
@@ -1821,7 +1837,7 @@
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="13" t="s">
         <v>74</v>
       </c>
@@ -1835,7 +1851,7 @@
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="67" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1848,74 +1864,74 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48.6" customHeight="1">
-      <c r="A20" s="46"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="43.9" customHeight="1">
-      <c r="A21" s="46"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="1:8" ht="40.9" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="50"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:8" ht="48.6" customHeight="1">
-      <c r="A23" s="46"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="50"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8" ht="55.9" customHeight="1">
-      <c r="A24" s="46"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="50"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -1928,12 +1944,12 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="46.9" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
@@ -1944,7 +1960,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="43"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:8" ht="357" customHeight="1">
       <c r="A27" s="21" t="s">
@@ -1965,7 +1981,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="51.6" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="55" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -1981,7 +1997,7 @@
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="51.6" customHeight="1">
-      <c r="A29" s="35"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="13" t="s">
         <v>46</v>
       </c>
@@ -1995,7 +2011,7 @@
       <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="51.6" customHeight="1">
-      <c r="A30" s="36"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="13" t="s">
         <v>48</v>
       </c>
@@ -2063,22 +2079,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="47" style="69" customWidth="1"/>
-    <col min="3" max="3" width="65" style="70" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="70" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="51" style="71" customWidth="1"/>
-    <col min="9" max="9" width="51" style="51" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="26.375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="47" style="52" customWidth="1"/>
+    <col min="3" max="3" width="65" style="53" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="53" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="53" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="51" style="54" customWidth="1"/>
+    <col min="9" max="9" width="51" style="34" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2093,7 +2109,7 @@
       <c r="G1" s="73"/>
       <c r="H1" s="74"/>
     </row>
-    <row r="2" spans="1:8" s="52" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="75" t="s">
         <v>78</v>
       </c>
@@ -2118,180 +2134,180 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="77"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="77"/>
       <c r="B5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="77"/>
       <c r="B6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="77"/>
       <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="77"/>
       <c r="B8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="77"/>
       <c r="B9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="77"/>
       <c r="B10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="65" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="56"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="56"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="77"/>
       <c r="B14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="56"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="56"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="8" t="s">
@@ -2300,207 +2316,207 @@
       <c r="B16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="56"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="56"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="56"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="56"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="56"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/终极需求/系统剩余需求.xlsx
+++ b/doc/终极需求/系统剩余需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -635,19 +635,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>税金消耗？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>按周生提供的设计图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指机关人员，机关人员来源？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目部-&gt;费用上报（名称，金额，说明）-&gt;财务审核</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -694,6 +686,27 @@
   </si>
   <si>
     <t>这个指的是农民工？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理下增加规费上报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规费种类维护
+项目部-&gt;费用上报（名称，金额，说明）-&gt;财务审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理增加税金消耗，沈刚审核</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1160,6 +1173,19 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1239,16 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1575,16 +1591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1613,7 +1629,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="31" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -1625,15 +1641,15 @@
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="63" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="31" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1657,8 @@
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="51.6" customHeight="1">
       <c r="A5" s="24" t="s">
@@ -1663,7 +1679,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1676,12 +1692,12 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="153" customHeight="1">
-      <c r="A7" s="60"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
@@ -1692,10 +1708,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="66"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="62" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1711,7 +1727,7 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
@@ -1725,7 +1741,7 @@
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1739,7 +1755,7 @@
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="13" t="s">
         <v>56</v>
       </c>
@@ -1753,7 +1769,7 @@
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="13" t="s">
         <v>59</v>
       </c>
@@ -1767,7 +1783,7 @@
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="13" t="s">
         <v>64</v>
       </c>
@@ -1781,7 +1797,7 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A14" s="59"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="13" t="s">
         <v>65</v>
       </c>
@@ -1795,7 +1811,7 @@
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A15" s="59"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="13" t="s">
         <v>68</v>
       </c>
@@ -1809,7 +1825,7 @@
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="13" t="s">
         <v>70</v>
       </c>
@@ -1823,7 +1839,7 @@
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="13" t="s">
         <v>72</v>
       </c>
@@ -1837,7 +1853,7 @@
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="52.15" customHeight="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>74</v>
       </c>
@@ -1851,7 +1867,7 @@
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="71" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1864,74 +1880,74 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48.6" customHeight="1">
-      <c r="A20" s="67"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="72" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="71"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:8" ht="43.9" customHeight="1">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="71"/>
+      <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:8" ht="40.9" customHeight="1">
-      <c r="A22" s="67"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="71"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" ht="48.6" customHeight="1">
-      <c r="A23" s="67"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="69"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="71"/>
+      <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:8" ht="55.9" customHeight="1">
-      <c r="A24" s="67"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="71"/>
+      <c r="H24" s="75"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -1944,12 +1960,12 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="68" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="46.9" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
@@ -1960,7 +1976,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="64"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="27" spans="1:8" ht="357" customHeight="1">
       <c r="A27" s="21" t="s">
@@ -1981,7 +1997,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="51.6" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="59" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -1997,7 +2013,7 @@
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="51.6" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="13" t="s">
         <v>46</v>
       </c>
@@ -2011,7 +2027,7 @@
       <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="51.6" customHeight="1">
-      <c r="A30" s="57"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="13" t="s">
         <v>48</v>
       </c>
@@ -2077,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2098,22 +2114,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
@@ -2134,13 +2150,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="37"/>
       <c r="E3" s="36"/>
       <c r="F3" s="38"/>
@@ -2148,11 +2164,11 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="40"/>
       <c r="E4" s="36"/>
       <c r="F4" s="38"/>
@@ -2160,12 +2176,12 @@
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>95</v>
+      <c r="C5" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="36"/>
@@ -2174,7 +2190,7 @@
       <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="3" t="s">
         <v>87</v>
       </c>
@@ -2188,7 +2204,7 @@
       <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="77"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
@@ -2200,7 +2216,7 @@
       <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="3" t="s">
         <v>90</v>
       </c>
@@ -2214,7 +2230,7 @@
       <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="77"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="3" t="s">
         <v>92</v>
       </c>
@@ -2226,12 +2242,12 @@
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="36"/>
@@ -2240,26 +2256,26 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="41"/>
+        <v>107</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="42"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>96</v>
+      <c r="A12" s="70"/>
+      <c r="B12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -2268,12 +2284,14 @@
       <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="69" t="s">
+        <v>103</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -2282,26 +2300,26 @@
       <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="3" t="s">
-        <v>101</v>
+      <c r="A14" s="81"/>
+      <c r="B14" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+        <v>98</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="42"/>
       <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -2310,14 +2328,12 @@
       <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="A16" s="70"/>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -2326,16 +2342,22 @@
       <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="40"/>
       <c r="G17" s="42"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="3"/>
       <c r="C18" s="43"/>
@@ -2348,36 +2370,36 @@
     <row r="19" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="44"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="39"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="51"/>
-      <c r="B22" s="49"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
@@ -2455,14 +2477,15 @@
       <c r="G29" s="50"/>
       <c r="H29" s="51"/>
     </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="34"/>
@@ -2518,12 +2541,21 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
     </row>
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/终极需求/系统剩余需求.xlsx
+++ b/doc/终极需求/系统剩余需求.xlsx
@@ -2096,7 +2096,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="81"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="56" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="40"/>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="81"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="40"/>
       <c r="E7" s="36"/>
       <c r="F7" s="38"/>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="81"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="56" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="40"/>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="81"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="56" t="s">
         <v>108</v>
       </c>
       <c r="D11" s="40"/>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="70"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="58" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="40"/>
@@ -2342,13 +2342,13 @@
       <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="58" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="37"/>
